--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_163__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_163__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,7 +6118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-2.854294061660767</c:v>
+                  <c:v>-2.854305744171143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93.21530151367188</c:v>
@@ -6127,130 +6127,130 @@
                   <c:v>53.36280059814453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4902593195438385</c:v>
+                  <c:v>0.4902622699737549</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.23337554931641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.99694061279297</c:v>
+                  <c:v>70.99695587158203</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>93.27377319335938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.91301536560059</c:v>
+                  <c:v>27.91299819946289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.906579494476318</c:v>
+                  <c:v>-2.906576633453369</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>51.25691604614258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.40834426879883</c:v>
+                  <c:v>40.40832901000977</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>90.8114013671875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.99562072753906</c:v>
+                  <c:v>45.99562454223633</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>93.2745361328125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.889273405075073</c:v>
+                  <c:v>-2.8892822265625</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>48.4780158996582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.919455289840698</c:v>
+                  <c:v>-2.919446468353271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.25534820556641</c:v>
+                  <c:v>93.25536346435547</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>66.8363037109375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.912238359451294</c:v>
+                  <c:v>-2.912229537963867</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>93.00543975830078</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93.28004455566406</c:v>
+                  <c:v>93.28005218505859</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>93.21192169189453</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93.28823852539062</c:v>
+                  <c:v>93.28822326660156</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.904677391052246</c:v>
+                  <c:v>-2.904671669006348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>92.45750427246094</c:v>
+                  <c:v>92.45751190185547</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92.29184722900391</c:v>
+                  <c:v>92.29185485839844</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.79711151123047</c:v>
+                  <c:v>69.79709625244141</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.925564050674438</c:v>
+                  <c:v>-2.925570011138916</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.77259087562561</c:v>
+                  <c:v>2.772593975067139</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>59.63027191162109</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.870565176010132</c:v>
+                  <c:v>-2.870577096939087</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.900106191635132</c:v>
+                  <c:v>-2.900115013122559</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.879055023193359</c:v>
+                  <c:v>-2.879043340682983</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.899391889572144</c:v>
+                  <c:v>-2.899389028549194</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.27202606201172</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>47.73531341552734</c:v>
+                  <c:v>47.73527526855469</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.901070356369019</c:v>
+                  <c:v>-2.901082277297974</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-2.907961130142212</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93.28980255126953</c:v>
+                  <c:v>93.28981781005859</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.13036727905273</c:v>
+                  <c:v>52.1303596496582</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>90.00298309326172</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.901796579360962</c:v>
+                  <c:v>-2.901799440383911</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>33.35768508911133</c:v>
+                  <c:v>33.35770034790039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.382493019104004</c:v>
+                  <c:v>2.382495880126953</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-2.896846055984497</c:v>
@@ -6259,22 +6259,22 @@
                   <c:v>-2.915598392486572</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>93.2720947265625</c:v>
+                  <c:v>93.27210235595703</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.1471061706543</c:v>
+                  <c:v>10.14708518981934</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>93.26890563964844</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.78131890296936</c:v>
+                  <c:v>-1.781327724456787</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.29597854614258</c:v>
+                  <c:v>12.29597187042236</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>91.64971923828125</c:v>
+                  <c:v>91.64973449707031</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>16.06995964050293</c:v>
@@ -6286,40 +6286,40 @@
                   <c:v>63.79247283935547</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>81.56254577636719</c:v>
+                  <c:v>81.56253814697266</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.886222124099731</c:v>
+                  <c:v>-2.886210203170776</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44.83577346801758</c:v>
+                  <c:v>44.83578109741211</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>90.98377227783203</c:v>
+                  <c:v>90.98378753662109</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-2.878908157348633</c:v>
+                  <c:v>-2.878913879394531</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.906767606735229</c:v>
+                  <c:v>-2.906785249710083</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>93.22612762451172</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.930740833282471</c:v>
+                  <c:v>-2.930737972259521</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>93.20140075683594</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.881936073303223</c:v>
+                  <c:v>-2.881944894790649</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.7138352394104</c:v>
+                  <c:v>-2.713832378387451</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.80316686630249</c:v>
+                  <c:v>-2.803160905838013</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>61.14723587036133</c:v>
@@ -6334,16 +6334,16 @@
                   <c:v>90.98139953613281</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>93.28311157226562</c:v>
+                  <c:v>93.28312683105469</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.514726638793945</c:v>
+                  <c:v>6.514732360839844</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>93.00924682617188</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.507776975631714</c:v>
+                  <c:v>-2.507782936096191</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>93.24770355224609</c:v>
@@ -6361,10 +6361,10 @@
                   <c:v>62.61900329589844</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-2.913549423217773</c:v>
+                  <c:v>-2.913555383682251</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.890131950378418</c:v>
+                  <c:v>-2.89012885093689</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>81.96906280517578</c:v>
@@ -6376,49 +6376,49 @@
                   <c:v>93.12477874755859</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.919758081436157</c:v>
+                  <c:v>-2.919755220413208</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.894129753112793</c:v>
+                  <c:v>-2.894141674041748</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.923579692840576</c:v>
+                  <c:v>-2.92359447479248</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>93.2464599609375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>92.74825286865234</c:v>
+                  <c:v>92.74823760986328</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.905503511428833</c:v>
+                  <c:v>-2.905509471893311</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52.55256652832031</c:v>
+                  <c:v>52.55255889892578</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93.26427459716797</c:v>
+                  <c:v>93.26425933837891</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>48.59793472290039</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>52.36260986328125</c:v>
+                  <c:v>52.36261367797852</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>78.03570556640625</c:v>
+                  <c:v>78.03572082519531</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>93.2742919921875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.888473749160767</c:v>
+                  <c:v>-2.888468027114868</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>93.21574401855469</c:v>
+                  <c:v>93.21575927734375</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.907861232757568</c:v>
+                  <c:v>-2.907849311828613</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>-2.644922733306885</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.854294061660767</v>
+        <v>-2.854305744171143</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4902593195438385</v>
+        <v>0.4902622699737549</v>
       </c>
       <c r="G5">
         <v>119</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>70.99694061279297</v>
+        <v>70.99695587158203</v>
       </c>
       <c r="G7">
         <v>119</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.91301536560059</v>
+        <v>27.91299819946289</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>-2.906579494476318</v>
+        <v>-2.906576633453369</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>40.40834426879883</v>
+        <v>40.40832901000977</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.99562072753906</v>
+        <v>45.99562454223633</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>-2.889273405075073</v>
+        <v>-2.8892822265625</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-2.919455289840698</v>
+        <v>-2.919446468353271</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>93.25534820556641</v>
+        <v>93.25536346435547</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-2.912238359451294</v>
+        <v>-2.912229537963867</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>93.28004455566406</v>
+        <v>93.28005218505859</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>93.28823852539062</v>
+        <v>93.28822326660156</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-2.904677391052246</v>
+        <v>-2.904671669006348</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>92.45750427246094</v>
+        <v>92.45751190185547</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>92.29184722900391</v>
+        <v>92.29185485839844</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>69.79711151123047</v>
+        <v>69.79709625244141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-2.925564050674438</v>
+        <v>-2.925570011138916</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.77259087562561</v>
+        <v>2.772593975067139</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-2.870565176010132</v>
+        <v>-2.870577096939087</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-2.900106191635132</v>
+        <v>-2.900115013122559</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-2.879055023193359</v>
+        <v>-2.879043340682983</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-2.899391889572144</v>
+        <v>-2.899389028549194</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>47.73531341552734</v>
+        <v>47.73527526855469</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-2.901070356369019</v>
+        <v>-2.901082277297974</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>81.7872</v>
       </c>
       <c r="F41">
-        <v>93.28980255126953</v>
+        <v>93.28981781005859</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>52.13036727905273</v>
+        <v>52.1303596496582</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-2.901796579360962</v>
+        <v>-2.901799440383911</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>33.35768508911133</v>
+        <v>33.35770034790039</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.382493019104004</v>
+        <v>2.382495880126953</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>89.79689999999999</v>
       </c>
       <c r="F49">
-        <v>93.2720947265625</v>
+        <v>93.27210235595703</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.1471061706543</v>
+        <v>10.14708518981934</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>-1.78131890296936</v>
+        <v>-1.781327724456787</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>12.29597854614258</v>
+        <v>12.29597187042236</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>91.64971923828125</v>
+        <v>91.64973449707031</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>81.56254577636719</v>
+        <v>81.56253814697266</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-2.886222124099731</v>
+        <v>-2.886210203170776</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>44.83577346801758</v>
+        <v>44.83578109741211</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>90.98377227783203</v>
+        <v>90.98378753662109</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-2.878908157348633</v>
+        <v>-2.878913879394531</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-2.906767606735229</v>
+        <v>-2.906785249710083</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>-2.930740833282471</v>
+        <v>-2.930737972259521</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-2.881936073303223</v>
+        <v>-2.881944894790649</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-2.7138352394104</v>
+        <v>-2.713832378387451</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-2.80316686630249</v>
+        <v>-2.803160905838013</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>93.28311157226562</v>
+        <v>93.28312683105469</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>6.514726638793945</v>
+        <v>6.514732360839844</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-2.507776975631714</v>
+        <v>-2.507782936096191</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-2.913549423217773</v>
+        <v>-2.913555383682251</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-2.890131950378418</v>
+        <v>-2.89012885093689</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-2.919758081436157</v>
+        <v>-2.919755220413208</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-2.894129753112793</v>
+        <v>-2.894141674041748</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-2.923579692840576</v>
+        <v>-2.92359447479248</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>92.74825286865234</v>
+        <v>92.74823760986328</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-2.905503511428833</v>
+        <v>-2.905509471893311</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>52.55256652832031</v>
+        <v>52.55255889892578</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>93.26427459716797</v>
+        <v>93.26425933837891</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>52.36260986328125</v>
+        <v>52.36261367797852</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>78.03570556640625</v>
+        <v>78.03572082519531</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-2.888473749160767</v>
+        <v>-2.888468027114868</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>93.21574401855469</v>
+        <v>93.21575927734375</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-2.907861232757568</v>
+        <v>-2.907849311828613</v>
       </c>
     </row>
     <row r="103" spans="1:6">
